--- a/Dokumentation/DataStrukture.xlsx
+++ b/Dokumentation/DataStrukture.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anders Rasmussen\Dropbox\IFAH Anders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anders.Rasmussen\Hjemmesider\Paraswim\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA32CF82-31CF-48F7-8581-A01346DF4B1F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3B4094F7-0D99-4E7A-B48E-0B28AA78A96B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{510923E2-2A25-427C-93A4-25B38F65963B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" activeTab="4" xr2:uid="{510923E2-2A25-427C-93A4-25B38F65963B}"/>
   </bookViews>
   <sheets>
     <sheet name="DataModel 1" sheetId="1" r:id="rId1"/>
     <sheet name="DataModel 2" sheetId="2" r:id="rId2"/>
     <sheet name="DataModel 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Svømmere" sheetId="4" r:id="rId4"/>
+    <sheet name="Stævner" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="147">
   <si>
     <t>Stævne</t>
   </si>
@@ -104,9 +106,6 @@
     <t>Navn: Trine Dybland</t>
   </si>
   <si>
-    <t>Tailmeldt tid: ?</t>
-  </si>
-  <si>
     <t>Sec</t>
   </si>
   <si>
@@ -320,17 +319,178 @@
     <t>Kan nemt komme til at lave nogle uhyggelig store datatræk</t>
   </si>
   <si>
-    <t>Struktur blvier for flad?</t>
-  </si>
-  <si>
     <t>Manglende information om selve stævnet? (Måske have det i en collection for sig selv?)</t>
+  </si>
+  <si>
+    <t>Struktur bliver for flad?</t>
+  </si>
+  <si>
+    <t>Collection : Svømmere</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Beskrivelse: generisk svømmer data for den enkelte svømmer, bruges specielt ved nye tilmeldinger til stævner til indlæsning af data</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Note Ved indlæsning</t>
+  </si>
+  <si>
+    <t>De fleste har vi kun Årgang så læs blot årgang ind med 1 jan som fødselsdag</t>
+  </si>
+  <si>
+    <t>Fødselsdag</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>Handicap {
+dk: F3,
+int_cr: S10,
+int_br: SB9,
+int_md: SM10
+}</t>
+  </si>
+  <si>
+    <t>Tilmeldt tid: ?</t>
+  </si>
+  <si>
+    <t>På sigt</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>blah@blah.dk</t>
+  </si>
+  <si>
+    <t>Licensnr</t>
+  </si>
+  <si>
+    <t>Ønsker_Email_Med_Tider</t>
+  </si>
+  <si>
+    <t>tlfnr</t>
+  </si>
+  <si>
+    <t>Ønsker_SMS_Med_Tider</t>
+  </si>
+  <si>
+    <t>Ting der er værd at overveje til senere implementering</t>
+  </si>
+  <si>
+    <t>idnr</t>
+  </si>
+  <si>
+    <t>løbenr</t>
+  </si>
+  <si>
+    <t>Klub_Historik</t>
+  </si>
+  <si>
+    <t>Klub_Historik {
+Klub: Hørsholm,
+Fra_år: 2012,
+Til_år: 2020,
+}</t>
+  </si>
+  <si>
+    <t>Til at holde styr på hvornår en svømmer kom fra og gik til en anden klub, lidt ligegyldtigt men noget der måske kunne være interesant</t>
+  </si>
+  <si>
+    <t>Ligegyldigt</t>
+  </si>
+  <si>
+    <t>Ligegyldige ting men som jeg lgie kom i tanke om</t>
+  </si>
+  <si>
+    <t>Collection : Stævner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beskrivelse: Dokumenter med stævner, liste til at vise stævner
+</t>
+  </si>
+  <si>
+    <t>Sidst_Opdateret</t>
+  </si>
+  <si>
+    <t>Oprettet</t>
+  </si>
+  <si>
+    <t>Region øst 1 stævne</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>Handicap_tilladt</t>
+  </si>
+  <si>
+    <t>Øst</t>
+  </si>
+  <si>
+    <t>Regions stævne</t>
+  </si>
+  <si>
+    <t>Bane_Type</t>
+  </si>
+  <si>
+    <t>Kort bane</t>
+  </si>
+  <si>
+    <t>Bane_Antal</t>
+  </si>
+  <si>
+    <t>int/number</t>
+  </si>
+  <si>
+    <t>Løb {
+1: 100 Fri,
+2: 50 fly,
+3: 100 Ryg crawl
+}</t>
+  </si>
+  <si>
+    <t>Sennere ksal det måske være muligt at markere om der skal laves finaler</t>
+  </si>
+  <si>
+    <t>Antal Tilmeldte svømmere</t>
+  </si>
+  <si>
+    <t>Antal Tilmeldte Klubber</t>
+  </si>
+  <si>
+    <t>Tilmelding_Aaben</t>
+  </si>
+  <si>
+    <t>Er åben / Lukket</t>
+  </si>
+  <si>
+    <t>bestemmer om man kan tilmelde nye svømmere</t>
+  </si>
+  <si>
+    <t>måske udregnes ud fra dato frem for at have denne info</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,13 +498,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -356,15 +560,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="God" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Ugyldig" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -380,9 +597,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kontor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -420,7 +637,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kontor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -526,7 +743,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kontor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -678,23 +895,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA593C1-8311-4736-ADCA-85FB8764D54E}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="49.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="49.5546875" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -702,7 +919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -710,7 +927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -718,7 +935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -726,7 +943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -734,7 +951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -742,160 +959,160 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
       </c>
       <c r="G11">
         <f>100*40*4*20</f>
         <v>320000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
-        <v>46</v>
       </c>
       <c r="G13">
         <f>100*4*20</f>
         <v>8000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
         <v>25</v>
       </c>
-      <c r="D26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -911,302 +1128,302 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" t="s">
         <v>88</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
         <v>55</v>
       </c>
-      <c r="D13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17">
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>62</v>
       </c>
       <c r="C22">
         <v>2004</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>17</v>
       </c>
       <c r="C23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>65</v>
       </c>
-      <c r="C26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>66</v>
       </c>
-      <c r="C28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30">
         <v>90000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31">
         <v>80970</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1218,299 +1435,813 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1832203E-A267-436A-B725-C68601EC9EE7}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" t="s">
         <v>88</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29">
+        <v>80970</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36883EF5-A6A5-4009-B014-96EAC61E0AD1}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="83.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="2">
+        <v>37987</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9099601D-8F9F-4E31-AC45-6F3D901C4058}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
+        <v>143</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="B20">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="B22" s="3">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="B23" s="3">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29">
-        <v>80970</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" t="s">
-        <v>82</v>
+        <v>131</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
